--- a/FDS.xlsx
+++ b/FDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E64E6F-7946-4679-96EE-39DD86F0A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363824E5-E92C-4420-A372-B59DEEA29990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{4DE6B30F-6040-4974-ADC7-491F3C465CAC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{4DE6B30F-6040-4974-ADC7-491F3C465CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>FactSet</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>EV</t>
-  </si>
-  <si>
-    <t>FQ125</t>
   </si>
   <si>
     <t>Main</t>
@@ -152,21 +149,34 @@
   <si>
     <t>Employee Count</t>
   </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -216,20 +226,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -568,7 +586,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,18 +608,18 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>462.43</v>
+        <v>283.56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2">
-        <v>38.030045999999999</v>
+      <c r="I3" s="4">
+        <v>37.806773999999997</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
+      <c r="J3" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -613,7 +631,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>17586.234171780001</v>
+        <v>10720.488835439999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -624,11 +642,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="4">
-        <f>289.168+69.623</f>
-        <v>358.791</v>
+        <f>356.361+7.684</f>
+        <v>364.04500000000002</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
+      <c r="J5" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -636,11 +654,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="4">
-        <f>62.46+1296.643</f>
-        <v>1359.1030000000001</v>
+        <f>1430.197+0</f>
+        <v>1430.1969999999999</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
+      <c r="J6" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -649,12 +667,12 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>18586.546171779999</v>
+        <v>11786.640835439999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5">
         <v>12575</v>
@@ -667,13 +685,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89605793-DC62-4D92-B943-08ED45DA45B1}">
-  <dimension ref="A1:BU384"/>
+  <dimension ref="A1:BU385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,1201 +701,521 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>2306.1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7945</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8020</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8029</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>8249</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8645</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8811</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5">
-        <v>7945</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>8249</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>207083</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="D5" s="5">
+        <v>206478</v>
+      </c>
+      <c r="E5" s="5">
+        <v>208140</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>218267</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>32</v>
+      <c r="H5" s="5">
+        <v>219141</v>
       </c>
-      <c r="C6" s="3">
-        <v>348.36700000000002</v>
+      <c r="I5" s="5">
+        <v>220496</v>
       </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>367.24200000000002</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11">
+        <v>348.36700000000002</v>
+      </c>
+      <c r="D7" s="11">
+        <v>352.61799999999999</v>
+      </c>
+      <c r="E7" s="11">
+        <v>356.46800000000002</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>367.24200000000002</v>
+      </c>
+      <c r="H7" s="11">
+        <v>369.661</v>
+      </c>
+      <c r="I7" s="11">
+        <v>380.50099999999998</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11">
+        <v>139.56100000000001</v>
+      </c>
+      <c r="D8" s="11">
+        <v>139.17599999999999</v>
+      </c>
+      <c r="E8" s="11">
+        <v>141.279</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>143.72499999999999</v>
+      </c>
+      <c r="H8" s="11">
+        <v>143.387</v>
+      </c>
+      <c r="I8" s="11">
+        <v>145.74100000000001</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3">
-        <v>139.56100000000001</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>143.72499999999999</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C9" s="11">
         <v>54.287999999999997</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="D9" s="11">
+        <v>54.151000000000003</v>
+      </c>
+      <c r="E9" s="11">
+        <v>54.960999999999999</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <v>57.7</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="H9" s="11">
+        <v>57.612000000000002</v>
+      </c>
+      <c r="I9" s="11">
+        <v>59.277999999999999</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12">
+        <v>542.21600000000001</v>
+      </c>
+      <c r="D10" s="12">
+        <v>545.94500000000005</v>
+      </c>
+      <c r="E10" s="12">
+        <v>552.70799999999997</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <v>568.66700000000003</v>
+      </c>
+      <c r="H10" s="12">
+        <v>570.66</v>
+      </c>
+      <c r="I10" s="12">
+        <v>585.52</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7">
-        <v>542.21600000000001</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>568.66700000000003</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
-      <c r="BP9" s="4"/>
-      <c r="BQ9" s="4"/>
-      <c r="BR9" s="4"/>
-      <c r="BS9" s="4"/>
-      <c r="BT9" s="4"/>
-      <c r="BU9" s="4"/>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="C11" s="10">
         <v>251.62100000000001</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="D11" s="10">
+        <v>255.142</v>
+      </c>
+      <c r="E11" s="10">
+        <v>246.98599999999999</v>
+      </c>
+      <c r="G11" s="10">
         <v>258.779</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
-      <c r="BO10" s="4"/>
-      <c r="BP10" s="4"/>
-      <c r="BQ10" s="4"/>
-      <c r="BR10" s="4"/>
-      <c r="BS10" s="4"/>
-      <c r="BT10" s="4"/>
-      <c r="BU10" s="4"/>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
+      <c r="H11" s="10">
+        <v>269.60399999999998</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:F11" si="0">+C9-C10</f>
+      <c r="I11" s="10">
+        <v>280.72899999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:F12" si="0">+C10-C11</f>
         <v>290.59500000000003</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>290.80300000000005</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>305.72199999999998</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>+G9-G10</f>
+      <c r="G12" s="10">
+        <f>+G10-G11</f>
         <v>309.88800000000003</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" ref="H11:J11" si="1">+H9-H10</f>
-        <v>0</v>
+      <c r="H12" s="10">
+        <f t="shared" ref="H12:J12" si="1">+H10-H11</f>
+        <v>301.05599999999998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>304.791</v>
+      </c>
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
-      <c r="BR11" s="4"/>
-      <c r="BS11" s="4"/>
-      <c r="BT11" s="4"/>
-      <c r="BU11" s="4"/>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="10">
+        <v>101.55500000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>108.861</v>
+      </c>
+      <c r="E13" s="10">
+        <v>103.26300000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>118.553</v>
+      </c>
+      <c r="H13" s="10">
+        <v>115.56399999999999</v>
+      </c>
+      <c r="I13" s="10">
+        <v>110.636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
-        <v>101.55500000000001</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>118.553</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
-      <c r="BO12" s="4"/>
-      <c r="BP12" s="4"/>
-      <c r="BQ12" s="4"/>
-      <c r="BR12" s="4"/>
-      <c r="BS12" s="4"/>
-      <c r="BT12" s="4"/>
-      <c r="BU12" s="4"/>
-    </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4">
-        <f>+C11-C12</f>
+      <c r="C14" s="10">
+        <f>+C12-C13</f>
         <v>189.04000000000002</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:J13" si="2">+D11-D12</f>
-        <v>0</v>
+      <c r="D14" s="10">
+        <f t="shared" ref="D14:J14" si="2">+D12-D13</f>
+        <v>181.94200000000006</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="10">
+        <f t="shared" si="2"/>
+        <v>202.45899999999997</v>
+      </c>
+      <c r="F14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G14" s="10">
+        <f t="shared" si="2"/>
+        <v>191.33500000000004</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
+        <v>185.49199999999999</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>194.155</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>191.33500000000004</v>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C15" s="10">
+        <v>3.012</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="D15" s="10">
+        <v>2.847</v>
       </c>
-      <c r="J13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E15" s="10">
+        <v>4.5679999999999996</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
-      <c r="BO13" s="4"/>
-      <c r="BP13" s="4"/>
-      <c r="BQ13" s="4"/>
-      <c r="BR13" s="4"/>
-      <c r="BS13" s="4"/>
-      <c r="BT13" s="4"/>
-      <c r="BU13" s="4"/>
-    </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="G15" s="10">
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1.5089999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4">
-        <v>3.012</v>
+      <c r="C16" s="10">
+        <v>16.738</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>2.7010000000000001</v>
+      <c r="D16" s="10">
+        <v>16.599</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
-      <c r="BL14" s="4"/>
-      <c r="BM14" s="4"/>
-      <c r="BN14" s="4"/>
-      <c r="BO14" s="4"/>
-      <c r="BP14" s="4"/>
-      <c r="BQ14" s="4"/>
-      <c r="BR14" s="4"/>
-      <c r="BS14" s="4"/>
-      <c r="BT14" s="4"/>
-      <c r="BU14" s="4"/>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="E16" s="10">
+        <v>16.893999999999998</v>
+      </c>
+      <c r="G16" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>13.916</v>
+      </c>
+      <c r="I16" s="10">
+        <v>15.122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4">
-        <v>16.738</v>
+      <c r="C17" s="10">
+        <v>-0.11799999999999999</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>14.4</v>
+      <c r="D17" s="10">
+        <v>0.45500000000000002</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
-      <c r="BL15" s="4"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
-      <c r="BP15" s="4"/>
-      <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
-      <c r="BT15" s="4"/>
-      <c r="BU15" s="4"/>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="E17" s="10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4">
-        <v>-0.11799999999999999</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
-      <c r="BL16" s="4"/>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="4"/>
-      <c r="BP16" s="4"/>
-      <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
-      <c r="BS16" s="4"/>
-      <c r="BT16" s="4"/>
-      <c r="BU16" s="4"/>
-    </row>
-    <row r="17" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:F17" si="3">+C13+C14-C15+C16</f>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:F18" si="3">+C14+C15-C16+C17</f>
         <v>175.19600000000003</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="10">
+        <f t="shared" si="3"/>
+        <v>168.6450000000001</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="3"/>
+        <v>190.53199999999998</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f>+G13+G14-G15+G16</f>
+      <c r="G18" s="10">
+        <f>+G14+G15-G16+G17</f>
         <v>179.73900000000003</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" ref="H17:J17" si="4">+H13+H14-H15+H16</f>
-        <v>0</v>
+      <c r="H18" s="10">
+        <f t="shared" ref="H18:J18" si="4">+H14+H15-H16+H17</f>
+        <v>172.32</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="10">
+        <f t="shared" si="4"/>
+        <v>179.94799999999998</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+    </row>
+    <row r="19" spans="1:73" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
-      <c r="BP17" s="4"/>
-      <c r="BQ17" s="4"/>
-      <c r="BR17" s="4"/>
-      <c r="BS17" s="4"/>
-      <c r="BT17" s="4"/>
-      <c r="BU17" s="4"/>
-    </row>
-    <row r="18" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="10">
+        <v>26.640999999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>27.704999999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>32.396999999999998</v>
+      </c>
+      <c r="G19" s="10">
+        <v>29.716999999999999</v>
+      </c>
+      <c r="H19" s="10">
+        <v>27.46</v>
+      </c>
+      <c r="I19" s="10">
+        <v>31.405999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4">
-        <v>26.640999999999998</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>29.716999999999999</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
-      <c r="BP18" s="4"/>
-      <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
-      <c r="BS18" s="4"/>
-      <c r="BT18" s="4"/>
-      <c r="BU18" s="4"/>
-    </row>
-    <row r="19" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:F19" si="5">+C17-C18</f>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:F20" si="5">+C18-C19</f>
         <v>148.55500000000004</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="10">
+        <f t="shared" si="5"/>
+        <v>140.94000000000011</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="5"/>
+        <v>158.13499999999999</v>
+      </c>
+      <c r="F20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <f>+G17-G18</f>
+      <c r="G20" s="10">
+        <f>+G18-G19</f>
         <v>150.02200000000005</v>
       </c>
-      <c r="H19" s="4">
-        <f t="shared" ref="H19:J19" si="6">+H17-H18</f>
-        <v>0</v>
+      <c r="H20" s="10">
+        <f t="shared" ref="H20:J20" si="6">+H18-H19</f>
+        <v>144.85999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="10">
+        <f t="shared" si="6"/>
+        <v>148.54199999999997</v>
+      </c>
+      <c r="J20" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
-      <c r="BP19" s="4"/>
-      <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
-      <c r="BS19" s="4"/>
-      <c r="BT19" s="4"/>
-      <c r="BU19" s="4"/>
-    </row>
-    <row r="20" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
-      <c r="BP20" s="4"/>
-      <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
-      <c r="BT20" s="4"/>
-      <c r="BU20" s="4"/>
-    </row>
-    <row r="21" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:F21" si="7">+C19/C22</f>
-        <v>3.9076967592592604</v>
-      </c>
-      <c r="D21" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="8">
-        <f>+G19/G22</f>
-        <v>3.9474279700039481</v>
-      </c>
-      <c r="H21" s="8" t="e">
-        <f t="shared" ref="H21:J21" si="8">+H19/H22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
+    </row>
+    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1942,22 +1280,42 @@
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
     </row>
-    <row r="22" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
-      <c r="C22" s="4">
-        <v>38.015999999999998</v>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:F22" si="7">+C20/C23</f>
+        <v>3.9076967592592604</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>38.005000000000003</v>
+      <c r="D22" s="7">
+        <f t="shared" si="7"/>
+        <v>3.6989213447760045</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="E22" s="7">
+        <f t="shared" si="7"/>
+        <v>4.1517235947386384</v>
+      </c>
+      <c r="F22" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="7">
+        <f>+G20/G23</f>
+        <v>3.9474279700039481</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22:J22" si="8">+H20/H23</f>
+        <v>3.8106010785216355</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="8"/>
+        <v>3.9185902339937213</v>
+      </c>
+      <c r="J22" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2022,14 +1380,29 @@
       <c r="BT22" s="4"/>
       <c r="BU22" s="4"/>
     </row>
-    <row r="23" spans="2:73" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>38.015999999999998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>38.103000000000002</v>
+      </c>
+      <c r="E23" s="4">
+        <v>38.088999999999999</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="4">
+        <v>38.005000000000003</v>
+      </c>
+      <c r="H23" s="4">
+        <v>38.015000000000001</v>
+      </c>
+      <c r="I23" s="4">
+        <v>37.906999999999996</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2095,7 +1468,7 @@
       <c r="BT23" s="4"/>
       <c r="BU23" s="4"/>
     </row>
-    <row r="24" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2168,7 +1541,7 @@
       <c r="BT24" s="4"/>
       <c r="BU24" s="4"/>
     </row>
-    <row r="25" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2241,7 +1614,7 @@
       <c r="BT25" s="4"/>
       <c r="BU25" s="4"/>
     </row>
-    <row r="26" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2314,7 +1687,7 @@
       <c r="BT26" s="4"/>
       <c r="BU26" s="4"/>
     </row>
-    <row r="27" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2387,7 +1760,7 @@
       <c r="BT27" s="4"/>
       <c r="BU27" s="4"/>
     </row>
-    <row r="28" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2460,7 +1833,7 @@
       <c r="BT28" s="4"/>
       <c r="BU28" s="4"/>
     </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2533,7 +1906,7 @@
       <c r="BT29" s="4"/>
       <c r="BU29" s="4"/>
     </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2606,7 +1979,7 @@
       <c r="BT30" s="4"/>
       <c r="BU30" s="4"/>
     </row>
-    <row r="31" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2679,7 +2052,7 @@
       <c r="BT31" s="4"/>
       <c r="BU31" s="4"/>
     </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -28448,10 +27821,84 @@
       <c r="BT384" s="4"/>
       <c r="BU384" s="4"/>
     </row>
+    <row r="385" spans="3:73" x14ac:dyDescent="0.2">
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
+      <c r="H385" s="4"/>
+      <c r="I385" s="4"/>
+      <c r="J385" s="4"/>
+      <c r="K385" s="4"/>
+      <c r="L385" s="4"/>
+      <c r="M385" s="4"/>
+      <c r="N385" s="4"/>
+      <c r="O385" s="4"/>
+      <c r="P385" s="4"/>
+      <c r="Q385" s="4"/>
+      <c r="R385" s="4"/>
+      <c r="S385" s="4"/>
+      <c r="T385" s="4"/>
+      <c r="U385" s="4"/>
+      <c r="V385" s="4"/>
+      <c r="W385" s="4"/>
+      <c r="X385" s="4"/>
+      <c r="Y385" s="4"/>
+      <c r="Z385" s="4"/>
+      <c r="AA385" s="4"/>
+      <c r="AB385" s="4"/>
+      <c r="AC385" s="4"/>
+      <c r="AD385" s="4"/>
+      <c r="AE385" s="4"/>
+      <c r="AF385" s="4"/>
+      <c r="AG385" s="4"/>
+      <c r="AH385" s="4"/>
+      <c r="AI385" s="4"/>
+      <c r="AJ385" s="4"/>
+      <c r="AK385" s="4"/>
+      <c r="AL385" s="4"/>
+      <c r="AM385" s="4"/>
+      <c r="AN385" s="4"/>
+      <c r="AO385" s="4"/>
+      <c r="AP385" s="4"/>
+      <c r="AQ385" s="4"/>
+      <c r="AR385" s="4"/>
+      <c r="AS385" s="4"/>
+      <c r="AT385" s="4"/>
+      <c r="AU385" s="4"/>
+      <c r="AV385" s="4"/>
+      <c r="AW385" s="4"/>
+      <c r="AX385" s="4"/>
+      <c r="AY385" s="4"/>
+      <c r="AZ385" s="4"/>
+      <c r="BA385" s="4"/>
+      <c r="BB385" s="4"/>
+      <c r="BC385" s="4"/>
+      <c r="BD385" s="4"/>
+      <c r="BE385" s="4"/>
+      <c r="BF385" s="4"/>
+      <c r="BG385" s="4"/>
+      <c r="BH385" s="4"/>
+      <c r="BI385" s="4"/>
+      <c r="BJ385" s="4"/>
+      <c r="BK385" s="4"/>
+      <c r="BL385" s="4"/>
+      <c r="BM385" s="4"/>
+      <c r="BN385" s="4"/>
+      <c r="BO385" s="4"/>
+      <c r="BP385" s="4"/>
+      <c r="BQ385" s="4"/>
+      <c r="BR385" s="4"/>
+      <c r="BS385" s="4"/>
+      <c r="BT385" s="4"/>
+      <c r="BU385" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DA672225-4BFF-497F-AAEF-0D5D432D3BBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>